--- a/images/res.xlsx
+++ b/images/res.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Val" sheetId="1" r:id="rId1"/>
+    <sheet name="Val2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="16">
   <si>
     <t>X1</t>
   </si>
@@ -66,6 +67,12 @@
   </si>
   <si>
     <t>white</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>left</t>
   </si>
 </sst>
 </file>
@@ -385,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E121"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,4 +2458,2076 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>0.35055407999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>8.3363999999999997E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0.37074470999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>7.6187E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0.46568025000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>6.5185999999999998E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>0.57359981000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>2.8818000000000002E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>0.27257322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>9.5898999999999995E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>0.18879499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2225</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1.3396E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2225</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>0.30572883000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>9.5169000000000004E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2225</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0.25307998999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2225</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>1.0464999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2225</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>0.31680608999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2225</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>9.0700999999999998E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2225</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>0.30881180000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2225</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>9.5545999999999999E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>0.23561737999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2327</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>8.8464999999999995E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2327</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>0.1314015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2327</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>1.55236E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2327</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>0.17571144999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2327</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1.15095E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2327</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>0.24183061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2327</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>7.9918000000000003E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2327</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>0.26238426999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2327</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>9.5932000000000005E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2327</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>0.11770448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2327</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>1.5298899999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2327</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>0.23177200000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2327</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>9.7417000000000001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2327</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0.19272791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2327</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>1.21382E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2327</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>0.15280978000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2327</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>1.2010199999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2327</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>0.27427815</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2327</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>8.0805000000000004E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2444</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0.32426892000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2444</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>9.9214000000000008E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2444</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>0.26148841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2444</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>9.3112000000000002E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2444</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>0.30339634999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2444</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>1.1017500000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2444</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>0.16566611000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2444</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>9.9756999999999992E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2444</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>0.26581101000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2444</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>9.8079000000000005E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2444</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>0.19171193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2444</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>1.00468E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2444</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>0.21955084999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2444</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>9.6692999999999996E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2444</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>0.23311045999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2444</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>1.1389200000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2444</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>0.22246732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2444</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>1.01891E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2444</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>0.24096980000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2444</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>1.1532000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2459</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62">
+        <v>0.28385782999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2459</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>9.2971000000000004E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2459</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64">
+        <v>0.19726511999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2459</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>1.1269699999999999E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2459</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>0.32652174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2459</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>8.8873000000000001E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2459</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68">
+        <v>0.16904243999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2459</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>1.21076E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2459</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70">
+        <v>0.31258872999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2459</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>9.2829999999999996E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2459</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72">
+        <v>0.38649038000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2459</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>9.8426999999999998E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2459</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74">
+        <v>0.22557942</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2459</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>1.13093E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2459</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76">
+        <v>0.24238725</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2459</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <v>9.0074999999999997E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2459</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78">
+        <v>0.15226387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2459</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>1.2534E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2459</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>0.20979442000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2459</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>1.1339399999999999E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2502</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>0.22236618</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2502</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>1.0915300000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2502</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84">
+        <v>0.20216802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2502</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>9.2889000000000003E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2502</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86">
+        <v>0.53933321999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2502</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>6.0975000000000005E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2502</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88">
+        <v>0.47273769999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2502</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>8.7564000000000001E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2502</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90">
+        <v>0.24868581000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2502</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91">
+        <v>1.42095E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2502</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92">
+        <v>0.25713725999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2502</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93">
+        <v>9.4503999999999996E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2502</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>0.25766505000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2502</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>8.5541999999999997E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2502</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96">
+        <v>0.23048921999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2502</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>1.48113E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2502</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98">
+        <v>0.21312592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2502</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>1.00829E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2502</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>0.2398209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2502</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>9.4059000000000005E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2672</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102">
+        <v>0.79463865</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2672</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103">
+        <v>1.7877999999999999E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2672</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104">
+        <v>0.63281058000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2672</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>4.1146999999999999E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2672</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106">
+        <v>0.21091286000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2672</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>9.0724000000000002E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2672</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108">
+        <v>0.30745167000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2672</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>9.1346999999999999E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2672</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110">
+        <v>0.51723352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2672</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111">
+        <v>6.7285999999999995E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2672</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112">
+        <v>0.23994705</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2672</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113">
+        <v>1.02381E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2672</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>0.26379331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2672</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>1.0721400000000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2672</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116">
+        <v>0.24010168000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2672</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117">
+        <v>8.7825000000000002E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2672</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118">
+        <v>0.74947613000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2672</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>3.3895700000000002E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2672</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>0.76101596000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2672</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121">
+        <v>3.3506199999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/res.xlsx
+++ b/images/res.xlsx
@@ -2465,7 +2465,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>0.35055407999999999</v>
+        <v>0.80638323999999995</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>8.3363999999999997E-4</v>
+        <v>5.24E-5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0.37074470999999998</v>
+        <v>0.69141883000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>7.6187E-4</v>
+        <v>1.2018E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2569,7 +2569,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>0.46568025000000002</v>
+        <v>0.38544213999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2586,7 +2586,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>6.5185999999999998E-4</v>
+        <v>4.3606E-4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2603,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0.57359981000000004</v>
+        <v>0.50780530999999995</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="E9">
-        <v>2.8818000000000002E-4</v>
+        <v>4.4262000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>0.27257322</v>
+        <v>0.30192318000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>9.5898999999999995E-4</v>
+        <v>1.16843E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>0.18879499999999999</v>
+        <v>0.31490035</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>1.3396E-3</v>
+        <v>8.6443000000000002E-4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2705,7 +2705,7 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>0.30572883000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <v>9.5169000000000004E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2739,7 +2739,7 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>0.25307998999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>1.0464999999999999E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2773,7 +2773,7 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>0.31680608999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
         <v>12</v>
       </c>
       <c r="E19">
-        <v>9.0700999999999998E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2807,7 +2807,7 @@
         <v>11</v>
       </c>
       <c r="E20">
-        <v>0.30881180000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2824,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="E21">
-        <v>9.5545999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,7 +2841,7 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>0.23561737999999999</v>
+        <v>0.34264412</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2858,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="E23">
-        <v>8.8464999999999995E-4</v>
+        <v>6.3369999999999995E-4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>0.1314015</v>
+        <v>0.22527548</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>1.55236E-3</v>
+        <v>7.4386999999999999E-4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="E26">
-        <v>0.17571144999999999</v>
+        <v>0.38217082000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2926,7 +2926,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>1.15095E-3</v>
+        <v>7.1411000000000001E-4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>0.24183061</v>
+        <v>0.18447118000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>7.9918000000000003E-4</v>
+        <v>8.6651000000000002E-4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>11</v>
       </c>
       <c r="E30">
-        <v>0.26238426999999998</v>
+        <v>0.35911387</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="E31">
-        <v>9.5932000000000005E-4</v>
+        <v>8.9811000000000003E-4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3011,7 +3011,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>0.11770448</v>
+        <v>0.17374050999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>1.5298899999999999E-3</v>
+        <v>9.2623E-4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="E34">
-        <v>0.23177200000000001</v>
+        <v>0.25155681000000002</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="E35">
-        <v>9.7417000000000001E-4</v>
+        <v>8.2311999999999999E-4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>0.19272791</v>
+        <v>0.20257476999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>12</v>
       </c>
       <c r="E37">
-        <v>1.21382E-3</v>
+        <v>7.0239E-4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3113,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="E38">
-        <v>0.15280978000000001</v>
+        <v>0.34612379999999998</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3130,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>1.2010199999999999E-3</v>
+        <v>9.3658999999999995E-4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3147,7 +3147,7 @@
         <v>11</v>
       </c>
       <c r="E40">
-        <v>0.27427815</v>
+        <v>0.26670585000000002</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="E41">
-        <v>8.0805000000000004E-4</v>
+        <v>9.2608000000000002E-4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>0.32426892000000002</v>
+        <v>0.55619578000000003</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3198,7 +3198,7 @@
         <v>12</v>
       </c>
       <c r="E43">
-        <v>9.9214000000000008E-4</v>
+        <v>5.3865E-4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
         <v>11</v>
       </c>
       <c r="E44">
-        <v>0.26148841</v>
+        <v>0.25788603999999998</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>12</v>
       </c>
       <c r="E45">
-        <v>9.3112000000000002E-4</v>
+        <v>1.0169700000000001E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3249,7 +3249,7 @@
         <v>11</v>
       </c>
       <c r="E46">
-        <v>0.30339634999999998</v>
+        <v>0.30358751</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="E47">
-        <v>1.1017500000000001E-3</v>
+        <v>1.28729E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,7 +3283,7 @@
         <v>11</v>
       </c>
       <c r="E48">
-        <v>0.16566611000000001</v>
+        <v>0.23835339</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
         <v>12</v>
       </c>
       <c r="E49">
-        <v>9.9756999999999992E-4</v>
+        <v>9.3623000000000003E-4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,7 +3317,7 @@
         <v>11</v>
       </c>
       <c r="E50">
-        <v>0.26581101000000001</v>
+        <v>0.49180272000000003</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="E51">
-        <v>9.8079000000000005E-4</v>
+        <v>6.5297E-4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
         <v>11</v>
       </c>
       <c r="E52">
-        <v>0.19171193</v>
+        <v>0.26344951999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3368,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="E53">
-        <v>1.00468E-3</v>
+        <v>6.8771000000000001E-4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3385,7 +3385,7 @@
         <v>11</v>
       </c>
       <c r="E54">
-        <v>0.21955084999999999</v>
+        <v>0.44984814000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="E55">
-        <v>9.6692999999999996E-4</v>
+        <v>7.5294000000000001E-4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3419,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="E56">
-        <v>0.23311045999999999</v>
+        <v>0.30748626000000001</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>12</v>
       </c>
       <c r="E57">
-        <v>1.1389200000000001E-3</v>
+        <v>9.2091999999999999E-4</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3453,7 +3453,7 @@
         <v>11</v>
       </c>
       <c r="E58">
-        <v>0.22246732</v>
+        <v>0.19195365</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
         <v>12</v>
       </c>
       <c r="E59">
-        <v>1.01891E-3</v>
+        <v>9.9287000000000008E-4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="E60">
-        <v>0.24096980000000001</v>
+        <v>0.26740538000000003</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="E61">
-        <v>1.1532000000000001E-3</v>
+        <v>9.9044999999999992E-4</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3521,7 +3521,7 @@
         <v>11</v>
       </c>
       <c r="E62">
-        <v>0.28385782999999998</v>
+        <v>0.43322666999999998</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="E63">
-        <v>9.2971000000000004E-4</v>
+        <v>8.3217999999999996E-4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3555,7 +3555,7 @@
         <v>11</v>
       </c>
       <c r="E64">
-        <v>0.19726511999999999</v>
+        <v>0.23100377</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="E65">
-        <v>1.1269699999999999E-3</v>
+        <v>9.2694000000000001E-4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="E66">
-        <v>0.32652174</v>
+        <v>0.41127127000000002</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
         <v>12</v>
       </c>
       <c r="E67">
-        <v>8.8873000000000001E-4</v>
+        <v>8.4064000000000003E-4</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>11</v>
       </c>
       <c r="E68">
-        <v>0.16904243999999999</v>
+        <v>0.27337536000000001</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3640,7 +3640,7 @@
         <v>12</v>
       </c>
       <c r="E69">
-        <v>1.21076E-3</v>
+        <v>8.5172000000000004E-4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>11</v>
       </c>
       <c r="E70">
-        <v>0.31258872999999998</v>
+        <v>0.34867927999999998</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="E71">
-        <v>9.2829999999999996E-4</v>
+        <v>9.5724999999999998E-4</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3691,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="E72">
-        <v>0.38649038000000002</v>
+        <v>0.28013444999999998</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>12</v>
       </c>
       <c r="E73">
-        <v>9.8426999999999998E-4</v>
+        <v>8.5749000000000003E-4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,7 +3725,7 @@
         <v>11</v>
       </c>
       <c r="E74">
-        <v>0.22557942</v>
+        <v>0.50036137000000003</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,7 +3742,7 @@
         <v>12</v>
       </c>
       <c r="E75">
-        <v>1.13093E-3</v>
+        <v>6.1381999999999995E-4</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>11</v>
       </c>
       <c r="E76">
-        <v>0.24238725</v>
+        <v>0.24723266999999999</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3776,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="E77">
-        <v>9.0074999999999997E-4</v>
+        <v>9.4202999999999995E-4</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3793,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="E78">
-        <v>0.15226387</v>
+        <v>0.35322489000000001</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>12</v>
       </c>
       <c r="E79">
-        <v>1.2534E-3</v>
+        <v>8.9340000000000003E-4</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3827,7 +3827,7 @@
         <v>11</v>
       </c>
       <c r="E80">
-        <v>0.20979442000000001</v>
+        <v>0.26019527999999997</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="E81">
-        <v>1.1339399999999999E-3</v>
+        <v>8.5981000000000002E-4</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="E82">
-        <v>0.22236618</v>
+        <v>0.49729058999999998</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="E83">
-        <v>1.0915300000000001E-3</v>
+        <v>7.3768E-4</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3895,7 +3895,7 @@
         <v>11</v>
       </c>
       <c r="E84">
-        <v>0.20216802</v>
+        <v>0.25623658999999999</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,7 +3912,7 @@
         <v>12</v>
       </c>
       <c r="E85">
-        <v>9.2889000000000003E-4</v>
+        <v>1.1589E-3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3929,7 +3929,7 @@
         <v>11</v>
       </c>
       <c r="E86">
-        <v>0.53933321999999995</v>
+        <v>0.29769623000000001</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3946,7 +3946,7 @@
         <v>12</v>
       </c>
       <c r="E87">
-        <v>6.0975000000000005E-4</v>
+        <v>1.5877599999999999E-3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3963,7 +3963,7 @@
         <v>11</v>
       </c>
       <c r="E88">
-        <v>0.47273769999999998</v>
+        <v>0.22646313000000001</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="E89">
-        <v>8.7564000000000001E-4</v>
+        <v>1.1667299999999999E-3</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3997,7 +3997,7 @@
         <v>11</v>
       </c>
       <c r="E90">
-        <v>0.24868581000000001</v>
+        <v>0.30932335999999999</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4014,7 +4014,7 @@
         <v>12</v>
       </c>
       <c r="E91">
-        <v>1.42095E-3</v>
+        <v>1.2272699999999999E-3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
         <v>11</v>
       </c>
       <c r="E92">
-        <v>0.25713725999999998</v>
+        <v>0.27413557</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4048,7 +4048,7 @@
         <v>12</v>
       </c>
       <c r="E93">
-        <v>9.4503999999999996E-4</v>
+        <v>1.3894199999999999E-3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
         <v>11</v>
       </c>
       <c r="E94">
-        <v>0.25766505000000001</v>
+        <v>0.48687000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,7 +4082,7 @@
         <v>12</v>
       </c>
       <c r="E95">
-        <v>8.5541999999999997E-4</v>
+        <v>3.8944000000000001E-4</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4099,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="E96">
-        <v>0.23048921999999999</v>
+        <v>0.22207444000000001</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>12</v>
       </c>
       <c r="E97">
-        <v>1.48113E-3</v>
+        <v>1.0200599999999999E-3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4133,7 +4133,7 @@
         <v>11</v>
       </c>
       <c r="E98">
-        <v>0.21312592</v>
+        <v>0.34301610999999999</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="E99">
-        <v>1.00829E-3</v>
+        <v>1.0582199999999999E-3</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
         <v>11</v>
       </c>
       <c r="E100">
-        <v>0.2398209</v>
+        <v>0.23621339999999999</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4184,7 +4184,7 @@
         <v>12</v>
       </c>
       <c r="E101">
-        <v>9.4059000000000005E-4</v>
+        <v>1.1219299999999999E-3</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4201,7 +4201,7 @@
         <v>11</v>
       </c>
       <c r="E102">
-        <v>0.79463865</v>
+        <v>0.50413068999999999</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4218,7 +4218,7 @@
         <v>12</v>
       </c>
       <c r="E103">
-        <v>1.7877999999999999E-4</v>
+        <v>6.7020999999999997E-4</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4235,7 +4235,7 @@
         <v>11</v>
       </c>
       <c r="E104">
-        <v>0.63281058000000001</v>
+        <v>0.32715322000000002</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4252,7 +4252,7 @@
         <v>12</v>
       </c>
       <c r="E105">
-        <v>4.1146999999999999E-4</v>
+        <v>7.1650000000000001E-4</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4269,7 +4269,7 @@
         <v>11</v>
       </c>
       <c r="E106">
-        <v>0.21091286000000001</v>
+        <v>0.41232021000000002</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4286,7 +4286,7 @@
         <v>12</v>
       </c>
       <c r="E107">
-        <v>9.0724000000000002E-4</v>
+        <v>8.3887000000000002E-4</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4303,7 +4303,7 @@
         <v>11</v>
       </c>
       <c r="E108">
-        <v>0.30745167000000001</v>
+        <v>0.27937521999999998</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,7 @@
         <v>12</v>
       </c>
       <c r="E109">
-        <v>9.1346999999999999E-4</v>
+        <v>8.0610999999999996E-4</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4337,7 +4337,7 @@
         <v>11</v>
       </c>
       <c r="E110">
-        <v>0.51723352</v>
+        <v>0.49767971999999999</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4354,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="E111">
-        <v>6.7285999999999995E-4</v>
+        <v>4.8930999999999996E-4</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4371,7 +4371,7 @@
         <v>11</v>
       </c>
       <c r="E112">
-        <v>0.23994705</v>
+        <v>0.23670483</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4388,7 +4388,7 @@
         <v>12</v>
       </c>
       <c r="E113">
-        <v>1.02381E-3</v>
+        <v>8.4298000000000001E-4</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4405,7 +4405,7 @@
         <v>11</v>
       </c>
       <c r="E114">
-        <v>0.26379331</v>
+        <v>0.50564043999999997</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4422,7 +4422,7 @@
         <v>12</v>
       </c>
       <c r="E115">
-        <v>1.0721400000000001E-3</v>
+        <v>5.8195999999999996E-4</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4439,7 +4439,7 @@
         <v>11</v>
       </c>
       <c r="E116">
-        <v>0.24010168000000001</v>
+        <v>0.29698583000000001</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4456,7 +4456,7 @@
         <v>12</v>
       </c>
       <c r="E117">
-        <v>8.7825000000000002E-4</v>
+        <v>8.4478000000000005E-4</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4473,7 +4473,7 @@
         <v>11</v>
       </c>
       <c r="E118">
-        <v>0.74947613000000002</v>
+        <v>0.82901219000000004</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4490,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="E119">
-        <v>3.3895700000000002E-3</v>
+        <v>3.22193E-3</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4507,7 +4507,7 @@
         <v>11</v>
       </c>
       <c r="E120">
-        <v>0.76101596000000005</v>
+        <v>0.76775757</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="E121">
-        <v>3.3506199999999999E-3</v>
+        <v>2.8083700000000001E-3</v>
       </c>
     </row>
   </sheetData>
